--- a/Laborbuch/Pendel/Daten.xlsx
+++ b/Laborbuch/Pendel/Daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justu\Desktop\Laborbuch-im-Physikpraktikum\Laborbuch\Pendel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B47AE-CD9A-461E-BAD0-3967C7B9F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B36CE-9432-4AAA-9624-23A38E3D00D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{245FFA13-19AE-4B35-B808-36F13DCEA8FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Oberes Ende</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>(s)</t>
+  </si>
+  <si>
+    <t>Mittelwert:</t>
   </si>
 </sst>
 </file>
@@ -92,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -408,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E4B709-2F44-4BFB-840E-C4BF75789E5A}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,18 +445,6 @@
       <c r="H1">
         <v>4</v>
       </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <v>4</v>
-      </c>
-      <c r="L1">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -461,6 +453,24 @@
       <c r="B2">
         <v>88.5</v>
       </c>
+      <c r="C2">
+        <v>74.3</v>
+      </c>
+      <c r="D2">
+        <v>58.6</v>
+      </c>
+      <c r="E2">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>30.3</v>
+      </c>
+      <c r="G2">
+        <v>114.9</v>
+      </c>
+      <c r="H2">
+        <v>148.6</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -487,18 +497,6 @@
       <c r="H3">
         <v>5.8869999999999996</v>
       </c>
-      <c r="I3">
-        <v>5.8869999999999996</v>
-      </c>
-      <c r="J3">
-        <v>5.8869999999999996</v>
-      </c>
-      <c r="K3">
-        <v>5.8869999999999996</v>
-      </c>
-      <c r="L3">
-        <v>5.8869999999999996</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -513,36 +511,212 @@
         <f>B2-B1+B3/2</f>
         <v>87.4435</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:L6" si="0">C2-C1+C3/2</f>
+        <v>73.243499999999997</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>57.543500000000002</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>44.9435</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>29.243500000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>113.84350000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>147.54349999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>18.75</v>
       </c>
+      <c r="C11" s="1">
+        <v>17.22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15.47</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13.44</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10.85</v>
+      </c>
+      <c r="G11" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>24.37</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>18.72</v>
       </c>
+      <c r="C12" s="1">
+        <v>17.28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15.44</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10.97</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21.44</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24.44</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="B13" s="1">
         <v>18.850000000000001</v>
       </c>
+      <c r="C13" s="1">
+        <v>17.18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="G13" s="1">
+        <v>21.44</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24.44</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="B14" s="1">
         <v>18.850000000000001</v>
       </c>
+      <c r="C14" s="1">
+        <v>17.28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>15.56</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="F14" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="G14" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>24.47</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15">
+      <c r="B15" s="1">
         <v>18.72</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17.25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15.44</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10.91</v>
+      </c>
+      <c r="G15" s="1">
+        <v>21.47</v>
+      </c>
+      <c r="H15" s="1">
+        <v>24.73</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <f>AVERAGE(B11:B15)</f>
+        <v>18.777999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:L17" si="1">AVERAGE(C11:C15)</f>
+        <v>17.242000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>15.481999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>10.940000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>21.47</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>24.490000000000002</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
